--- a/Example/Results/summary_graph.xlsx
+++ b/Example/Results/summary_graph.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\LCMS data analysis\Example\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -122,12 +130,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -146,24 +172,47 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Summary!$C$4:$C$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>4.6417599899497008E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.618133451071755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8837737708097599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.403520034154155E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.4857088761135581E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.908989134729608E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -172,7 +221,25 @@
                 <c:f>Summary!$C$4:$C$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>4.6417599899497008E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.618133451071755E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8837737708097599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.403520034154155E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.4857088761135581E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.908989134729608E-3</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -210,27 +277,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0100086773712762</c:v>
+                  <c:v>1.00086773712762E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03880924191437685</c:v>
+                  <c:v>3.8809241914376853E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01091619991967686</c:v>
+                  <c:v>1.091619991967686E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02402673835434095</c:v>
+                  <c:v>2.4026738354340951E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01598205795199631</c:v>
+                  <c:v>1.5982057951996309E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0143191626712072</c:v>
+                  <c:v>1.4319162671207201E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E572-4981-AB2E-815DA6C60ACE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:barChart>
@@ -239,19 +320,25 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -271,8 +358,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -280,6 +370,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -290,8 +382,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -310,24 +412,44 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Summary!$E$4:$E$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="1">
+                    <c:v>6.6960411193508984E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6476535979818052E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9017132018518567E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.1320434178441042E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0862927146332409E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -336,7 +458,22 @@
                 <c:f>Summary!$E$4:$E$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="1">
+                    <c:v>6.6960411193508984E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.6476535979818052E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9017132018518567E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.1320434178441042E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0862927146332409E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -374,24 +511,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="1">
-                  <c:v>0.3092607379833108</c:v>
+                  <c:v>0.30926073798331077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06255806675974708</c:v>
+                  <c:v>6.255806675974708E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1846246785352118</c:v>
+                  <c:v>0.18462467853521181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09430878441483143</c:v>
+                  <c:v>9.4308784414831426E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1091784572757813</c:v>
+                  <c:v>0.10917845727578129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5904-4A25-908B-95CB6C98C9B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="50020001"/>
         <c:axId val="50020002"/>
       </c:barChart>
@@ -400,19 +551,25 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -432,8 +589,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
@@ -441,6 +601,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -451,8 +613,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -471,24 +643,29 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Summary!$G$4:$G$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -497,7 +674,7 @@
                 <c:f>Summary!$G$4:$G$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -537,7 +714,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13C4-4FDE-9B27-E5A6D43EAF82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="50030001"/>
         <c:axId val="50030002"/>
       </c:barChart>
@@ -546,19 +737,25 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50030002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50030002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -578,8 +775,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50030001"/>
         <c:crosses val="autoZero"/>
@@ -587,6 +787,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -597,8 +799,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -617,24 +829,47 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Summary!$I$4:$I$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.9307770669187278E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.5906548521982933E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.72406312613616E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0013726701903993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2572277154147888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.0881062502060703E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -643,7 +878,25 @@
                 <c:f>Summary!$I$4:$I$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="0"/>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.9307770669187278E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.5906548521982933E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.72406312613616E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0013726701903993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2572277154147888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.0881062502060703E-4</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -681,27 +934,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.006706342462395216</c:v>
+                  <c:v>6.7063424623952164E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01817205280002614</c:v>
+                  <c:v>1.817205280002614E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.006405251077047349</c:v>
+                  <c:v>6.4052510770473492E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01271586617326021</c:v>
+                  <c:v>1.2715866173260209E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.007496906077081422</c:v>
+                  <c:v>7.4969060770814222E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.009441807620747113</c:v>
+                  <c:v>9.4418076207471134E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF4C-4BE1-842A-F39BBA5F740A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="50040001"/>
         <c:axId val="50040002"/>
       </c:barChart>
@@ -710,19 +977,25 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50040002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -742,8 +1015,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50040001"/>
         <c:crosses val="autoZero"/>
@@ -751,6 +1027,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -764,15 +1042,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -794,16 +1072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -825,15 +1103,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -854,16 +1132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -928,7 +1206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,9 +1238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,6 +1273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1169,33 +1449,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1222,141 +1504,141 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0100086773712762</v>
+        <v>1.00086773712762E-2</v>
       </c>
       <c r="C4">
-        <v>0.004641759989949701</v>
+        <v>4.6417599899497008E-3</v>
       </c>
       <c r="H4">
-        <v>0.006706342462395216</v>
+        <v>6.7063424623952164E-3</v>
       </c>
       <c r="I4">
-        <v>0.002930777066918728</v>
+        <v>2.9307770669187278E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.03880924191437685</v>
+        <v>3.8809241914376853E-2</v>
       </c>
       <c r="C5">
-        <v>0.01618133451071755</v>
+        <v>1.618133451071755E-2</v>
       </c>
       <c r="D5">
-        <v>0.3092607379833108</v>
+        <v>0.30926073798331077</v>
       </c>
       <c r="E5">
-        <v>0.06696041119350898</v>
+        <v>6.6960411193508984E-2</v>
       </c>
       <c r="H5">
-        <v>0.01817205280002614</v>
+        <v>1.817205280002614E-2</v>
       </c>
       <c r="I5">
-        <v>0.006590654852198293</v>
+        <v>6.5906548521982933E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01091619991967686</v>
+        <v>1.091619991967686E-2</v>
       </c>
       <c r="C6">
-        <v>0.00388377377080976</v>
+        <v>3.8837737708097599E-3</v>
       </c>
       <c r="D6">
-        <v>0.06255806675974708</v>
+        <v>6.255806675974708E-2</v>
       </c>
       <c r="E6">
-        <v>0.04647653597981805</v>
+        <v>4.6476535979818052E-2</v>
       </c>
       <c r="H6">
-        <v>0.006405251077047349</v>
+        <v>6.4052510770473492E-3</v>
       </c>
       <c r="I6">
-        <v>0.00172406312613616</v>
+        <v>1.72406312613616E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02402673835434095</v>
+        <v>2.4026738354340951E-2</v>
       </c>
       <c r="C7">
-        <v>0.01403520034154155</v>
+        <v>1.403520034154155E-2</v>
       </c>
       <c r="D7">
-        <v>0.1846246785352118</v>
+        <v>0.18462467853521181</v>
       </c>
       <c r="E7">
-        <v>0.04901713201851857</v>
+        <v>4.9017132018518567E-2</v>
       </c>
       <c r="H7">
-        <v>0.01271586617326021</v>
+        <v>1.2715866173260209E-2</v>
       </c>
       <c r="I7">
-        <v>0.005001372670190399</v>
+        <v>5.0013726701903993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.01598205795199631</v>
+        <v>1.5982057951996309E-2</v>
       </c>
       <c r="C8">
-        <v>0.01485708876113558</v>
+        <v>1.4857088761135581E-2</v>
       </c>
       <c r="D8">
-        <v>0.09430878441483143</v>
+        <v>9.4308784414831426E-2</v>
       </c>
       <c r="E8">
-        <v>0.07132043417844104</v>
+        <v>7.1320434178441042E-2</v>
       </c>
       <c r="H8">
-        <v>0.007496906077081422</v>
+        <v>7.4969060770814222E-3</v>
       </c>
       <c r="I8">
-        <v>0.004257227715414789</v>
+        <v>4.2572277154147888E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0143191626712072</v>
+        <v>1.4319162671207201E-2</v>
       </c>
       <c r="C9">
-        <v>0.002908989134729608</v>
+        <v>2.908989134729608E-3</v>
       </c>
       <c r="D9">
-        <v>0.1091784572757813</v>
+        <v>0.10917845727578129</v>
       </c>
       <c r="E9">
-        <v>0.01086292714633241</v>
+        <v>1.0862927146332409E-2</v>
       </c>
       <c r="H9">
-        <v>0.009441807620747113</v>
+        <v>9.4418076207471134E-3</v>
       </c>
       <c r="I9">
-        <v>0.000708810625020607</v>
+        <v>7.0881062502060703E-4</v>
       </c>
     </row>
   </sheetData>
